--- a/data/kospi_ROE_11_upper.xlsx
+++ b/data/kospi_ROE_11_upper.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easya\Workspace\HK_Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easya\Workspace\HK_Project\3_데이터 가공\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0AE9ED-284A-4C66-B54C-BC0FF71D676A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD456E6-82D0-4239-8E18-6038D95BF437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>종목명</t>
   </si>
@@ -34,130 +34,151 @@
     <t>LG생활건강</t>
   </si>
   <si>
+    <t>051900</t>
+  </si>
+  <si>
     <t>엔씨소프트</t>
   </si>
   <si>
+    <t>036570</t>
+  </si>
+  <si>
     <t>코웨이</t>
   </si>
   <si>
+    <t>021240</t>
+  </si>
+  <si>
     <t>금호석유</t>
   </si>
   <si>
+    <t>011780</t>
+  </si>
+  <si>
     <t>메리츠금융지주</t>
   </si>
   <si>
+    <t>138040</t>
+  </si>
+  <si>
     <t>메리츠화재</t>
   </si>
   <si>
+    <t>000060</t>
+  </si>
+  <si>
     <t>한국금융지주</t>
   </si>
   <si>
+    <t>071050</t>
+  </si>
+  <si>
     <t>DB하이텍</t>
   </si>
   <si>
+    <t>000990</t>
+  </si>
+  <si>
     <t>제일기획</t>
   </si>
   <si>
+    <t>030000</t>
+  </si>
+  <si>
     <t>한솔케미칼</t>
   </si>
   <si>
+    <t>014680</t>
+  </si>
+  <si>
     <t>더존비즈온</t>
   </si>
   <si>
+    <t>012510</t>
+  </si>
+  <si>
     <t>F&amp;F홀딩스</t>
   </si>
   <si>
+    <t>007700</t>
+  </si>
+  <si>
     <t>미원상사</t>
   </si>
   <si>
+    <t>002840</t>
+  </si>
+  <si>
     <t>삼양식품</t>
   </si>
   <si>
+    <t>003230</t>
+  </si>
+  <si>
     <t>DL건설</t>
   </si>
   <si>
+    <t>001880</t>
+  </si>
+  <si>
     <t>한국자산신탁</t>
   </si>
   <si>
+    <t>123890</t>
+  </si>
+  <si>
     <t>한전산업</t>
   </si>
   <si>
+    <t>130660</t>
+  </si>
+  <si>
     <t>한국쉘석유</t>
   </si>
   <si>
+    <t>002960</t>
+  </si>
+  <si>
     <t>계룡건설</t>
   </si>
   <si>
+    <t>013580</t>
+  </si>
+  <si>
     <t>효성ITX</t>
   </si>
   <si>
+    <t>094280</t>
+  </si>
+  <si>
     <t>에이플러스에셋</t>
   </si>
   <si>
-    <t>051900</t>
-  </si>
-  <si>
-    <t>036570</t>
-  </si>
-  <si>
-    <t>021240</t>
-  </si>
-  <si>
-    <t>011780</t>
-  </si>
-  <si>
-    <t>138040</t>
-  </si>
-  <si>
-    <t>000060</t>
-  </si>
-  <si>
-    <t>071050</t>
-  </si>
-  <si>
-    <t>000990</t>
-  </si>
-  <si>
-    <t>030000</t>
-  </si>
-  <si>
-    <t>014680</t>
-  </si>
-  <si>
-    <t>012510</t>
-  </si>
-  <si>
-    <t>007700</t>
-  </si>
-  <si>
-    <t>002840</t>
-  </si>
-  <si>
-    <t>003230</t>
-  </si>
-  <si>
-    <t>001880</t>
-  </si>
-  <si>
-    <t>123890</t>
-  </si>
-  <si>
-    <t>130660</t>
-  </si>
-  <si>
-    <t>002960</t>
-  </si>
-  <si>
-    <t>013580</t>
-  </si>
-  <si>
-    <t>094280</t>
-  </si>
-  <si>
     <t>244920</t>
   </si>
   <si>
-    <t>산업명</t>
+    <t>화학</t>
+  </si>
+  <si>
+    <t>서비스업</t>
+  </si>
+  <si>
+    <t>기타금융업</t>
+  </si>
+  <si>
+    <t>보험업</t>
+  </si>
+  <si>
+    <t>전기전자</t>
+  </si>
+  <si>
+    <t>음식료품</t>
+  </si>
+  <si>
+    <t>건설업</t>
+  </si>
+  <si>
+    <t>산업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +197,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -224,10 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -289,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,27 +353,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,24 +387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,7 +566,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -600,8 +596,8 @@
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -612,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>21.9</v>
@@ -631,6 +627,9 @@
       </c>
       <c r="I2">
         <v>19.559999999999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -638,10 +637,10 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>19.100000000000001</v>
@@ -660,6 +659,9 @@
       </c>
       <c r="I3">
         <v>16.54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -667,10 +669,10 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>30.1</v>
@@ -689,6 +691,9 @@
       </c>
       <c r="I4">
         <v>31.34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -696,10 +701,10 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>12.3</v>
@@ -718,6 +723,9 @@
       </c>
       <c r="I5">
         <v>24.74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -725,10 +733,10 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>19.399999999999999</v>
@@ -747,6 +755,9 @@
       </c>
       <c r="I6">
         <v>17.440000000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -754,10 +765,10 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>22.5</v>
@@ -776,6 +787,9 @@
       </c>
       <c r="I7">
         <v>17.64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -783,10 +797,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>14.1</v>
@@ -805,6 +819,9 @@
       </c>
       <c r="I8">
         <v>18.440000000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -812,10 +829,10 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>27.6</v>
@@ -834,6 +851,9 @@
       </c>
       <c r="I9">
         <v>23.04</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -841,10 +861,10 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>15.8</v>
@@ -863,6 +883,9 @@
       </c>
       <c r="I10">
         <v>15.88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -870,10 +893,10 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -892,6 +915,9 @@
       </c>
       <c r="I11">
         <v>22.2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -899,10 +925,10 @@
         <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>23.5</v>
@@ -921,6 +947,9 @@
       </c>
       <c r="I12">
         <v>18.66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -928,10 +957,10 @@
         <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>28.7</v>
@@ -950,6 +979,9 @@
       </c>
       <c r="I13">
         <v>61.260000000000012</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -957,10 +989,10 @@
         <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>14.9</v>
@@ -979,6 +1011,9 @@
       </c>
       <c r="I14">
         <v>16.84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -986,10 +1021,10 @@
         <v>250</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>15.3</v>
@@ -1008,6 +1043,9 @@
       </c>
       <c r="I15">
         <v>18.100000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1015,10 +1053,10 @@
         <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>22.2</v>
@@ -1038,16 +1076,19 @@
       <c r="I16">
         <v>21.52</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>27.1</v>
@@ -1067,16 +1108,19 @@
       <c r="I17">
         <v>18.239999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>321</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>20.399999999999999</v>
@@ -1096,16 +1140,19 @@
       <c r="I18">
         <v>18.940000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>372</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>24.6</v>
@@ -1125,16 +1172,19 @@
       <c r="I19">
         <v>24.64</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>381</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>16.7</v>
@@ -1154,16 +1204,19 @@
       <c r="I20">
         <v>19.420000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>503</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>16.5</v>
@@ -1183,13 +1236,16 @@
       <c r="I21">
         <v>19.96</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>523</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -1212,10 +1268,13 @@
       <c r="I22">
         <v>23.8</v>
       </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/kospi_ROE_11_upper.xlsx
+++ b/data/kospi_ROE_11_upper.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easya\Workspace\HK_Project\3_데이터 가공\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easya\Workspace\HK_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD456E6-82D0-4239-8E18-6038D95BF437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC786297-227D-4F8D-9FA9-BF9CA81FE59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$22</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>종목명</t>
   </si>
@@ -179,6 +182,70 @@
   </si>
   <si>
     <t>산업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WICS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증권</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬유,의류,신발,호화품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손해보험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임엔터테인먼트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정용기기와용품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기유틸리티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상업서비스와공급품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석유와가스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,15 +630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +664,11 @@
       <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>21</v>
       </c>
@@ -631,8 +699,11 @@
       <c r="J2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>36</v>
       </c>
@@ -663,8 +734,11 @@
       <c r="J3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>62</v>
       </c>
@@ -695,8 +769,11 @@
       <c r="J4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>64</v>
       </c>
@@ -727,8 +804,11 @@
       <c r="J5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>66</v>
       </c>
@@ -759,8 +839,11 @@
       <c r="J6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>67</v>
       </c>
@@ -792,7 +875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>68</v>
       </c>
@@ -823,8 +906,11 @@
       <c r="J8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>92</v>
       </c>
@@ -855,8 +941,11 @@
       <c r="J9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>112</v>
       </c>
@@ -887,8 +976,11 @@
       <c r="J10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>114</v>
       </c>
@@ -919,8 +1011,11 @@
       <c r="J11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>156</v>
       </c>
@@ -951,8 +1046,11 @@
       <c r="J12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>185</v>
       </c>
@@ -983,8 +1081,11 @@
       <c r="J13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>206</v>
       </c>
@@ -1015,8 +1116,11 @@
       <c r="J14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>250</v>
       </c>
@@ -1048,7 +1152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>265</v>
       </c>
@@ -1079,8 +1183,11 @@
       <c r="J16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>304</v>
       </c>
@@ -1111,8 +1218,11 @@
       <c r="J17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>321</v>
       </c>
@@ -1143,8 +1253,11 @@
       <c r="J18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>372</v>
       </c>
@@ -1175,8 +1288,11 @@
       <c r="J19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>381</v>
       </c>
@@ -1207,8 +1323,11 @@
       <c r="J20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>503</v>
       </c>
@@ -1239,8 +1358,11 @@
       <c r="J21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>523</v>
       </c>
@@ -1270,6 +1392,9 @@
       </c>
       <c r="J22" t="s">
         <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
